--- a/Project Documents/SODV2201_GP_Assignment1_Overnighters.xlsx
+++ b/Project Documents/SODV2201_GP_Assignment1_Overnighters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpate\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpate\OneDrive\Software Development\WEB\GP_WebProject\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9C39DD1-1A57-4E49-8579-379FD4E85774}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7411B43-1433-44B7-8119-41F4856F1C8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" xr2:uid="{A3E660C0-F138-4130-B6ED-61A7E397ACB5}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Post a new message</t>
   </si>
   <si>
-    <t>Review Post</t>
-  </si>
-  <si>
     <t>Read post</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Team Members: Brijeshkumar Patel, Anderson Resende Viana, Karamullah Agha, khushveen singh smagh</t>
+  </si>
+  <si>
+    <t>View Post</t>
   </si>
 </sst>
 </file>
@@ -528,36 +528,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23099792-80CC-4407-B810-E7E07809B233}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.26171875" customWidth="1"/>
+    <col min="2" max="2" width="14.83984375" customWidth="1"/>
+    <col min="3" max="3" width="35.578125" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -608,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -617,18 +617,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -637,55 +637,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -694,35 +694,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -731,64 +731,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
